--- a/社内PJ_Bチーム.xlsx
+++ b/社内PJ_Bチーム.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自社業務（Seraku）\202010-\3日目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1502F2-CA80-4D8F-945B-CF0D2AB84A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961F5F6-43CF-435F-8902-76D2F426F3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="375" windowWidth="22080" windowHeight="14595" activeTab="3" xr2:uid="{934BD406-3A40-44B6-8F38-31479D83C94D}"/>
+    <workbookView xWindow="4245" yWindow="795" windowWidth="18720" windowHeight="14595" activeTab="1" xr2:uid="{934BD406-3A40-44B6-8F38-31479D83C94D}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様メモ" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>スケジュール</t>
     <phoneticPr fontId="1"/>
@@ -866,6 +866,10 @@
     <rPh sb="52" eb="54">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1553,18 +1557,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1654,6 +1646,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,7 +1987,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2111,7 +2115,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="53" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2185,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C7801B-0C57-4117-B906-D9ECE2D5016F}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2218,9 +2222,15 @@
         <v>40</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2229,7 +2239,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2275,11 +2285,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="75" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="34">
@@ -2356,7 +2366,7 @@
       <c r="C8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="35" t="s">
         <v>2</v>
       </c>
@@ -2425,13 +2435,13 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="44"/>
@@ -2460,14 +2470,14 @@
       <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B10" s="52"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="36"/>
       <c r="F10" s="33"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
@@ -2489,11 +2499,11 @@
       <c r="Z10" s="33"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B11" s="52"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="36"/>
       <c r="F11" s="33"/>
       <c r="G11" s="32"/>
@@ -2520,9 +2530,9 @@
       <c r="Z11" s="33"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B12" s="52"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="73"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="36"/>
       <c r="F12" s="33"/>
       <c r="G12" s="32"/>
@@ -2547,9 +2557,9 @@
       <c r="Z12" s="33"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B13" s="52"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="73"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="36"/>
       <c r="F13" s="33"/>
       <c r="G13" s="32"/>
@@ -2574,10 +2584,10 @@
       <c r="Z13" s="33"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="78"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="50"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="15"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
@@ -2593,21 +2603,21 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="47"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="68" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="44"/>
@@ -2619,12 +2629,12 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="31"/>
-      <c r="L15" s="60"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
       <c r="P15" s="31"/>
-      <c r="Q15" s="60"/>
+      <c r="Q15" s="56"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="29"/>
@@ -2636,14 +2646,14 @@
       <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B16" s="52"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="36"/>
       <c r="F16" s="33"/>
-      <c r="G16" s="59"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="26"/>
@@ -2665,11 +2675,11 @@
       <c r="Z16" s="33"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B17" s="52"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="36"/>
       <c r="F17" s="33"/>
       <c r="G17" s="32"/>
@@ -2679,7 +2689,7 @@
       <c r="K17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="61"/>
+      <c r="L17" s="57"/>
       <c r="M17" s="41"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
@@ -2696,11 +2706,11 @@
       <c r="Z17" s="33"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B18" s="52"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="36"/>
       <c r="F18" s="33"/>
       <c r="G18" s="32"/>
@@ -2710,12 +2720,12 @@
       <c r="K18" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="59"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="38"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="42"/>
-      <c r="Q18" s="61"/>
+      <c r="Q18" s="57"/>
       <c r="R18" s="41"/>
       <c r="S18" s="41"/>
       <c r="T18" s="41"/>
@@ -2727,11 +2737,11 @@
       <c r="Z18" s="33"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B19" s="52"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="36"/>
       <c r="F19" s="33"/>
       <c r="G19" s="32"/>
@@ -2739,12 +2749,12 @@
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="33"/>
-      <c r="L19" s="61"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="41"/>
       <c r="N19" s="38"/>
       <c r="O19" s="38"/>
       <c r="P19" s="39"/>
-      <c r="Q19" s="59"/>
+      <c r="Q19" s="55"/>
       <c r="R19" s="41"/>
       <c r="S19" s="41"/>
       <c r="T19" s="41"/>
@@ -2756,11 +2766,11 @@
       <c r="Z19" s="33"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B20" s="52"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="73"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="36"/>
       <c r="F20" s="33"/>
       <c r="G20" s="32"/>
@@ -2773,7 +2783,7 @@
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
       <c r="P20" s="42"/>
-      <c r="Q20" s="59"/>
+      <c r="Q20" s="55"/>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
@@ -2785,12 +2795,12 @@
       <c r="Z20" s="33"/>
     </row>
     <row r="21" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="78"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="15"/>
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
@@ -2805,22 +2815,22 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="51"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="47"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="68" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="44"/>
@@ -2849,11 +2859,11 @@
       <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B23" s="52"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="73"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="36"/>
       <c r="F23" s="33"/>
       <c r="G23" s="32"/>
@@ -2863,7 +2873,7 @@
       <c r="K23" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="61"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="41"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -2880,11 +2890,11 @@
       <c r="Z23" s="33"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B24" s="52"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="36"/>
       <c r="F24" s="33"/>
       <c r="G24" s="32"/>
@@ -2894,12 +2904,12 @@
       <c r="K24" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L24" s="59"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="38"/>
       <c r="N24" s="41"/>
       <c r="O24" s="41"/>
       <c r="P24" s="42"/>
-      <c r="Q24" s="61"/>
+      <c r="Q24" s="57"/>
       <c r="R24" s="41"/>
       <c r="S24" s="41"/>
       <c r="T24" s="41"/>
@@ -2911,11 +2921,11 @@
       <c r="Z24" s="33"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B25" s="52"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="73"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="36"/>
       <c r="F25" s="33"/>
       <c r="G25" s="32"/>
@@ -2928,7 +2938,7 @@
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
       <c r="P25" s="39"/>
-      <c r="Q25" s="59"/>
+      <c r="Q25" s="55"/>
       <c r="R25" s="26"/>
       <c r="S25" s="26"/>
       <c r="T25" s="41"/>
@@ -2940,11 +2950,11 @@
       <c r="Z25" s="33"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B26" s="52"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="73"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="36"/>
       <c r="F26" s="33"/>
       <c r="G26" s="32"/>
@@ -2957,7 +2967,7 @@
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
       <c r="P26" s="33"/>
-      <c r="Q26" s="59"/>
+      <c r="Q26" s="55"/>
       <c r="R26" s="38"/>
       <c r="S26" s="38"/>
       <c r="T26" s="38"/>
@@ -2969,12 +2979,12 @@
       <c r="Z26" s="33"/>
     </row>
     <row r="27" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="78"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="15"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
@@ -2989,53 +2999,53 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="53"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="49"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
-      <c r="X27" s="51"/>
+      <c r="X27" s="47"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="73" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="63"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="59"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B29" s="52"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="76"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="20"/>
       <c r="F29" s="22"/>
       <c r="G29" s="19"/>
@@ -3052,20 +3062,20 @@
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="71"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="67"/>
       <c r="Y29" s="21"/>
       <c r="Z29" s="22"/>
     </row>
     <row r="30" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="78"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="50"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="15"/>
       <c r="G30" s="13"/>
       <c r="H30" s="14"/>
@@ -3081,10 +3091,10 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="51"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="47"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="15"/>
     </row>
@@ -3102,7 +3112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70B921-5081-4883-9307-5E86D8605EBB}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/社内PJ_Bチーム.xlsx
+++ b/社内PJ_Bチーム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961F5F6-43CF-435F-8902-76D2F426F3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CABF994-9A91-4EB0-B5AF-24BCC08422E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="795" windowWidth="18720" windowHeight="14595" activeTab="1" xr2:uid="{934BD406-3A40-44B6-8F38-31479D83C94D}"/>
+    <workbookView xWindow="9615" yWindow="525" windowWidth="18720" windowHeight="14595" xr2:uid="{934BD406-3A40-44B6-8F38-31479D83C94D}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様メモ" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
   <si>
     <t>スケジュール</t>
     <phoneticPr fontId="1"/>
@@ -513,13 +513,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト設計</t>
-    <rPh sb="3" eb="5">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト実装</t>
     <rPh sb="3" eb="5">
       <t>ジッソウ</t>
@@ -537,29 +530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストER図作成</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本番ER図作成</t>
-    <rPh sb="0" eb="2">
-      <t>ホンバン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>栗田</t>
     <rPh sb="0" eb="2">
       <t>クリタ</t>
@@ -746,10 +716,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Golang</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>環境</t>
     <rPh sb="0" eb="2">
       <t>カンキョウ</t>
@@ -787,20 +753,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>絶対</t>
-    <rPh sb="0" eb="2">
-      <t>ゼッタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>努力</t>
-    <rPh sb="0" eb="2">
-      <t>ドリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※朝Mtg　9:30、　夕Mtg　17:30</t>
     <rPh sb="1" eb="2">
       <t>アサ</t>
@@ -870,6 +822,151 @@
   </si>
   <si>
     <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（フレームワーク）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go言語</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i-0e89862aa12f1821d (GroupB)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/9(金)</t>
+    <rPh sb="5" eb="6">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期報告</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルAPIサーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（付与されたAWSとは別に、APIサーバとしての動作が可能なサーバ構築が可能）</t>
+    <rPh sb="1" eb="3">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翌週目標</t>
+    <rPh sb="0" eb="1">
+      <t>ヨク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗情報の追加・更新・削除が可能となること</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（メニューテーブルも同様に操作できれば尚良し）</t>
+    <rPh sb="10" eb="12">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ER図作成</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1421,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1645,6 +1742,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1973,11 +2073,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F54329-4F4E-4AB2-B6F3-6654057155EE}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2044,146 +2142,167 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="53" t="s">
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
         <v>82</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="F29" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2191,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C7801B-0C57-4117-B906-D9ECE2D5016F}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2224,7 +2343,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2236,11 +2355,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D91D8B6-1B04-4F6C-8466-F7B9CF128CF6}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2266,12 +2383,12 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
@@ -2285,11 +2402,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="75" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="76" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="34">
@@ -2361,12 +2478,12 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="76"/>
+        <v>64</v>
+      </c>
+      <c r="D8" s="77"/>
       <c r="E8" s="35" t="s">
         <v>2</v>
       </c>
@@ -2447,7 +2564,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="43"/>
       <c r="G9" s="37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="29"/>
@@ -2511,7 +2628,7 @@
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L11" s="32"/>
       <c r="M11" s="26"/>
@@ -2623,7 +2740,7 @@
       <c r="E15" s="44"/>
       <c r="F15" s="43"/>
       <c r="G15" s="37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -2685,20 +2802,20 @@
       <c r="G17" s="32"/>
       <c r="H17" s="26"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="33"/>
+      <c r="J17" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="39"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="26"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27"/>
@@ -2708,7 +2825,7 @@
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B18" s="48"/>
       <c r="C18" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="69"/>
       <c r="E18" s="36"/>
@@ -2717,15 +2834,13 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="57"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="55"/>
       <c r="R18" s="41"/>
       <c r="S18" s="41"/>
       <c r="T18" s="41"/>
@@ -2739,7 +2854,7 @@
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B19" s="48"/>
       <c r="C19" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="36"/>
@@ -2749,140 +2864,140 @@
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="33"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="38"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="38"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="55"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="39"/>
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="33"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B20" s="48"/>
-      <c r="C20" s="9" t="s">
+    <row r="20" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="74"/>
+      <c r="C20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B21" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="33"/>
-    </row>
-    <row r="21" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="74"/>
-      <c r="C21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="15"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B22" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="31"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="57"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="33"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B23" s="48"/>
       <c r="C23" s="9" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="36"/>
       <c r="F23" s="33"/>
       <c r="G23" s="32"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="33"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="42"/>
       <c r="V23" s="41"/>
       <c r="W23" s="41"/>
       <c r="X23" s="27"/>
@@ -2891,9 +3006,7 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B24" s="48"/>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="69"/>
       <c r="E24" s="36"/>
       <c r="F24" s="33"/>
@@ -2901,11 +3014,9 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" s="55"/>
-      <c r="M24" s="38"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="41"/>
       <c r="O24" s="41"/>
       <c r="P24" s="42"/>
@@ -2922,9 +3033,7 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B25" s="48"/>
-      <c r="C25" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="69"/>
       <c r="E25" s="36"/>
       <c r="F25" s="33"/>
@@ -2935,168 +3044,139 @@
       <c r="K25" s="33"/>
       <c r="L25" s="32"/>
       <c r="M25" s="26"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
       <c r="T25" s="41"/>
       <c r="U25" s="42"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
       <c r="X25" s="27"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="33"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B26" s="48"/>
-      <c r="C26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="33"/>
-    </row>
-    <row r="27" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="74"/>
-      <c r="C27" s="10" t="s">
+    <row r="26" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="74"/>
+      <c r="C26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="15"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="15"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B27" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="59"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B28" s="73" t="s">
-        <v>55</v>
-      </c>
+      <c r="B28" s="48"/>
       <c r="C28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="59"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B29" s="48"/>
-      <c r="C29" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="22"/>
-    </row>
-    <row r="30" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="74"/>
-      <c r="C30" s="10" t="s">
+      <c r="D28" s="72"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="22"/>
+    </row>
+    <row r="29" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="74"/>
+      <c r="C29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="15"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3105,40 +3185,78 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70B921-5081-4883-9307-5E86D8605EBB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
